--- a/summaries/summaries.xlsx
+++ b/summaries/summaries.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabri/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machinelearning/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="37280" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="43">
   <si>
     <t>dataset</t>
   </si>
@@ -148,12 +148,21 @@
   <si>
     <t>test_data: 350 gocce vuote, 350 con 1 cellula e 350 con 2 cellule da multiple acquisizioni</t>
   </si>
+  <si>
+    <t>DOCKER RETRAINING INCEPTION V3</t>
+  </si>
+  <si>
+    <t>test_data</t>
+  </si>
+  <si>
+    <t>Inception_v3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,8 +193,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +226,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -297,6 +319,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -325,7 +358,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -341,30 +374,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -668,13 +709,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="10.83203125" style="21"/>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
@@ -706,23 +747,23 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="7"/>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
@@ -730,21 +771,21 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
@@ -752,46 +793,46 @@
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="7"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="7"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="7"/>
       <c r="L6" s="7"/>
     </row>
@@ -800,26 +841,26 @@
       <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
@@ -827,27 +868,27 @@
       <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
@@ -858,14 +899,14 @@
       <c r="E9" s="8">
         <v>155</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>350</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>700</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -886,7 +927,7 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -927,7 +968,7 @@
       <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1028,7 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1091,7 @@
       <c r="AK13" s="8"/>
     </row>
     <row r="14" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +1154,7 @@
       <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1176,7 +1217,7 @@
       <c r="AK15" s="8"/>
     </row>
     <row r="16" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1280,7 @@
       <c r="AK16" s="8"/>
     </row>
     <row r="17" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1302,7 +1343,7 @@
       <c r="AK17" s="8"/>
     </row>
     <row r="18" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1365,7 +1406,7 @@
       <c r="AK18" s="8"/>
     </row>
     <row r="19" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1469,7 @@
       <c r="AK19" s="8"/>
     </row>
     <row r="20" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1491,7 +1532,7 @@
       <c r="AK20" s="8"/>
     </row>
     <row r="21" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1595,7 @@
       <c r="AK21" s="8"/>
     </row>
     <row r="22" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1617,7 +1658,7 @@
       <c r="AK22" s="8"/>
     </row>
     <row r="23" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1721,7 @@
       <c r="AK23" s="8"/>
     </row>
     <row r="24" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1781,7 +1822,7 @@
       <c r="AB26" s="9"/>
     </row>
     <row r="27" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1841,7 +1882,7 @@
       <c r="AK27" s="8"/>
     </row>
     <row r="28" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1904,7 +1945,7 @@
       <c r="AK28" s="8"/>
     </row>
     <row r="29" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1967,7 +2008,7 @@
       <c r="AK29" s="8"/>
     </row>
     <row r="30" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
@@ -2030,7 +2071,7 @@
       <c r="AK30" s="8"/>
     </row>
     <row r="31" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
@@ -2093,7 +2134,7 @@
       <c r="AK31" s="8"/>
     </row>
     <row r="32" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
@@ -2156,7 +2197,7 @@
       <c r="AK32" s="8"/>
     </row>
     <row r="33" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2260,7 @@
       <c r="AK33" s="8"/>
     </row>
     <row r="34" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
@@ -2282,7 +2323,7 @@
       <c r="AK34" s="8"/>
     </row>
     <row r="35" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
@@ -2345,7 +2386,7 @@
       <c r="AK35" s="8"/>
     </row>
     <row r="36" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
@@ -2408,7 +2449,7 @@
       <c r="AK36" s="8"/>
     </row>
     <row r="37" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
@@ -2499,7 +2540,7 @@
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="6" t="s">
         <v>24</v>
       </c>
@@ -3374,7 +3415,7 @@
       <c r="AA54" s="10"/>
     </row>
     <row r="55" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
@@ -3415,7 +3456,7 @@
       <c r="AK55" s="8"/>
     </row>
     <row r="56" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="5" t="s">
         <v>0</v>
       </c>
@@ -3476,7 +3517,7 @@
       <c r="AK56" s="8"/>
     </row>
     <row r="57" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="5" t="s">
         <v>11</v>
       </c>
@@ -3539,7 +3580,7 @@
       <c r="AK57" s="8"/>
     </row>
     <row r="58" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="5" t="s">
         <v>11</v>
       </c>
@@ -3602,7 +3643,7 @@
       <c r="AK58" s="8"/>
     </row>
     <row r="59" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="5" t="s">
         <v>13</v>
       </c>
@@ -3665,7 +3706,7 @@
       <c r="AK59" s="8"/>
     </row>
     <row r="60" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="5" t="s">
         <v>13</v>
       </c>
@@ -3746,7 +3787,7 @@
       <c r="AA61" s="10"/>
     </row>
     <row r="62" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="26"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="5" t="s">
         <v>23</v>
       </c>
@@ -3787,7 +3828,7 @@
       <c r="AK62" s="8"/>
     </row>
     <row r="63" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="6" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +3889,7 @@
       <c r="AK63" s="8"/>
     </row>
     <row r="64" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="26"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="6" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3952,7 @@
       <c r="AK64" s="8"/>
     </row>
     <row r="65" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="26"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="6" t="s">
         <v>11</v>
       </c>
@@ -3974,7 +4015,7 @@
       <c r="AK65" s="8"/>
     </row>
     <row r="66" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="26"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -4037,7 +4078,7 @@
       <c r="AK66" s="8"/>
     </row>
     <row r="67" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="26"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="6" t="s">
         <v>13</v>
       </c>
@@ -4126,56 +4167,110 @@
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L71" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="27"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="34">
+        <v>654</v>
+      </c>
+      <c r="E72" s="33">
+        <v>46</v>
+      </c>
+      <c r="F72" s="33">
+        <v>700</v>
+      </c>
+      <c r="G72" s="33">
+        <v>16</v>
+      </c>
+      <c r="H72" s="34">
+        <v>334</v>
+      </c>
+      <c r="I72" s="33">
+        <v>350</v>
+      </c>
+      <c r="J72" s="33">
+        <v>93</v>
+      </c>
+      <c r="K72" s="33">
+        <v>95</v>
+      </c>
+      <c r="L72" s="34">
+        <v>94</v>
+      </c>
+      <c r="M72" s="27"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B74" s="7"/>
@@ -5548,17 +5643,17 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="11">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
